--- a/biology/Médecine/Nilutamide/Nilutamide.xlsx
+++ b/biology/Médecine/Nilutamide/Nilutamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nilutamide, est vendu sous les marques Nilandron et Anandron[4].
+Le nilutamide, est vendu sous les marques Nilandron et Anandron.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter le cancer de la prostate [4]. Ce médicament aussi été utilisé comme composant d'une thérapie hormonale féminisante pour les femmes transgenres [5]. Ce médicament est pris par voie orale [4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter le cancer de la prostate . Ce médicament aussi été utilisé comme composant d'une thérapie hormonale féminisante pour les femmes transgenres . Ce médicament est pris par voie orale 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament peuvent inclure des bouffées de chaleur, une mauvaise capacité à voir dans l'obscurité, des nausées, de la constipation, des troubles du sommeil et une hypertrophie du souffle; [6] d'autres effets secondaires peuvent inclure un dysfonctionnement sexuel, l'ostéoporose, une intolérance à l'alcool [6],[4] Dans de rares cas, cela peut provoquer une pneumopathie et des lésions hépatiques [4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament peuvent inclure des bouffées de chaleur, une mauvaise capacité à voir dans l'obscurité, des nausées, de la constipation, des troubles du sommeil et une hypertrophie du souffle;  d'autres effets secondaires peuvent inclure un dysfonctionnement sexuel, l'ostéoporose, une intolérance à l'alcool , Dans de rares cas, cela peut provoquer une pneumopathie et des lésions hépatiques .
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nilutamide est un antiandrogène non stéroïdien  qui agit comme un antagoniste sélectif du récepteur des androgènes , empêchant ainsi les effets des androgènes [7]. Comme le cancer de la prostate dépend de ces hormones pour sa croissance et sa survie, ce médicament peut ralentir la progression de la maladie[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nilutamide est un antiandrogène non stéroïdien  qui agit comme un antagoniste sélectif du récepteur des androgènes , empêchant ainsi les effets des androgènes . Comme le cancer de la prostate dépend de ces hormones pour sa croissance et sa survie, ce médicament peut ralentir la progression de la maladie.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médicament a été découvert en 1977[8],[9], il a été approuvé aux États-Unis en 1996[4]. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé comme alternative au bicalutamide [10]. Il est disponible sous forme de médicament générique [11]. Aux États-Unis, 30 comprimés de 150 mg coûtent environ 1 600 dollars américains  en 2021[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médicament a été découvert en 1977 il a été approuvé aux États-Unis en 1996. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé comme alternative au bicalutamide . Il est disponible sous forme de médicament générique . Aux États-Unis, 30 comprimés de 150 mg coûtent environ 1 600 dollars américains  en 2021.
 </t>
         </is>
       </c>
